--- a/StructureDefinition-DiagnosticoCondHLf.xlsx
+++ b/StructureDefinition-DiagnosticoCondHLf.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.0</t>
+    <t>0.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-30T15:47:06-04:00</t>
+    <t>2023-06-30T18:27:12-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DiagnosticoCondHLf.xlsx
+++ b/StructureDefinition-DiagnosticoCondHLf.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$70</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2395" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2616" uniqueCount="398">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0</t>
+    <t>0.7.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-30T18:27:12-04:00</t>
+    <t>2023-09-13T17:11:14-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -137,6 +137,10 @@
   </si>
   <si>
     <t>A clinical condition, problem, diagnosis, or other event, situation, issue, or clinical concept that has risen to a level of concern.</t>
+  </si>
+  <si>
+    <t>con-2:If category is problems list item, the clinicalStatus should not be unknown {category.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-category' and code='problem-list-item').exists() implies clinicalStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-clinical' and code='unknown').exists().not()}
+con-3:If condition is abated, then clinicalStatus must be either inactive, resolved, or remission. {abatement.exists() implies (clinicalStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-clinical' and (code='inactive' or code='resolved' or code='remission')).exists())}dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().ofType(canonical) | %resource.descendants().ofType(uri) | %resource.descendants().ofType(url))) or descendants().where(reference = '#').exists() or descendants().where(ofType(canonical) = '#').exists() or descendants().where(ofType(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>clinical.general</t>
@@ -844,7 +848,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient)
+    <t xml:space="preserve">Reference(https://hospitallaflorida.cl/fhir/hlfhosp/StructureDefinition/PacienteHLF)
 </t>
   </si>
   <si>
@@ -960,14 +964,14 @@
     <t>Condition.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(https://hospitallaflorida.cl/fhir/hlfhosp/StructureDefinition/registro-atencion)
 </t>
   </si>
   <si>
-    <t>The Encounter during which this Condition was created</t>
-  </si>
-  <si>
-    <t>The Encounter during which this Condition was created or to which the creation of this record is tightly associated.</t>
+    <t>Referencia al recurso RegistroAtencion</t>
+  </si>
+  <si>
+    <t>Referecia al recurso RegistroAtencion al cual se le esta describiendo este recurso, debe ser la uri del recurso referido</t>
   </si>
   <si>
     <t>This will typically be the encounter the event occurred within, but some activities may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter. This record indicates the encounter this particular record is associated with.  In the case of a "new" diagnosis reflecting ongoing/revised information about the condition, this might be distinct from the first encounter in which the underlying condition was first "known".</t>
@@ -980,6 +984,30 @@
   </si>
   <si>
     <t>.inboundRelationship[typeCode=COMP].source[classCode=ENC, moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>Condition.encounter.id</t>
+  </si>
+  <si>
+    <t>Condition.encounter.extension</t>
+  </si>
+  <si>
+    <t>Condition.encounter.reference</t>
+  </si>
+  <si>
+    <t>uri del recurso RegistroAtencion referenciado</t>
+  </si>
+  <si>
+    <t>uri del recurso RegistroAtencion Ej: http://hlf.cl/fhir/Encounter/id01</t>
+  </si>
+  <si>
+    <t>Condition.encounter.type</t>
+  </si>
+  <si>
+    <t>Condition.encounter.identifier</t>
+  </si>
+  <si>
+    <t>Condition.encounter.display</t>
   </si>
   <si>
     <t>Condition.onset[x]</t>
@@ -1554,7 +1582,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO64"/>
+  <dimension ref="A1:AO70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1563,15 +1591,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="40.5" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="40.5" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="6" max="6" width="2.15234375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="2.15234375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="2.109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="2.109375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="40.3046875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="40.3046875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="6" max="6" width="2.203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="2.203125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="2.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="2.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="88.51953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="84.27734375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1579,29 +1607,29 @@
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="10.19140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="82.6015625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="50.4921875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="9.546875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="5.60546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="2.15234375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="2.15234375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="10.203125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="83.078125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="51.12890625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="9.2890625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="5.484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="2.203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="2.203125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" hidden="true" width="8.0" customWidth="false"/>
     <col min="17" max="17" width="20.703125" customWidth="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="16.77734375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="16.35546875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="65.78515625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="213.04296875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="11.07421875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="66.34375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="212.8046875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="11.4765625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1701,19 +1729,19 @@
         <v>34</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AM1" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AN1" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AO1" t="s" s="2">
         <v>34</v>
@@ -1721,10 +1749,10 @@
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1735,7 +1763,7 @@
         <v>35</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>34</v>
@@ -1744,19 +1772,19 @@
         <v>34</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1806,13 +1834,13 @@
         <v>34</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>34</v>
@@ -1838,10 +1866,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1852,7 +1880,7 @@
         <v>35</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>34</v>
@@ -1861,16 +1889,16 @@
         <v>34</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1921,19 +1949,19 @@
         <v>34</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>34</v>
@@ -1953,10 +1981,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1967,28 +1995,28 @@
         <v>35</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>34</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -2038,19 +2066,19 @@
         <v>34</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>34</v>
@@ -2070,10 +2098,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2084,7 +2112,7 @@
         <v>35</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>34</v>
@@ -2096,16 +2124,16 @@
         <v>34</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2131,13 +2159,13 @@
         <v>34</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>34</v>
@@ -2155,19 +2183,19 @@
         <v>34</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>34</v>
@@ -2187,21 +2215,21 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>34</v>
@@ -2213,16 +2241,16 @@
         <v>34</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2272,19 +2300,19 @@
         <v>34</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>34</v>
@@ -2296,7 +2324,7 @@
         <v>34</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO6" t="s" s="2">
         <v>34</v>
@@ -2304,14 +2332,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2330,16 +2358,16 @@
         <v>34</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2389,7 +2417,7 @@
         <v>34</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>35</v>
@@ -2398,7 +2426,7 @@
         <v>36</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>34</v>
@@ -2413,7 +2441,7 @@
         <v>34</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AO7" t="s" s="2">
         <v>34</v>
@@ -2421,14 +2449,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2447,16 +2475,16 @@
         <v>34</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2506,7 +2534,7 @@
         <v>34</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>35</v>
@@ -2518,7 +2546,7 @@
         <v>34</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>34</v>
@@ -2530,7 +2558,7 @@
         <v>34</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AO8" t="s" s="2">
         <v>34</v>
@@ -2538,14 +2566,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2558,25 +2586,25 @@
         <v>34</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>34</v>
@@ -2625,7 +2653,7 @@
         <v>34</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>35</v>
@@ -2637,7 +2665,7 @@
         <v>34</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>34</v>
@@ -2649,7 +2677,7 @@
         <v>34</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AO9" t="s" s="2">
         <v>34</v>
@@ -2657,10 +2685,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2680,22 +2708,22 @@
         <v>34</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>34</v>
@@ -2744,7 +2772,7 @@
         <v>34</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>35</v>
@@ -2756,10 +2784,10 @@
         <v>34</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>34</v>
@@ -2768,7 +2796,7 @@
         <v>34</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AO10" t="s" s="2">
         <v>34</v>
@@ -2776,10 +2804,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2787,31 +2815,31 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2837,13 +2865,13 @@
         <v>34</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>34</v>
@@ -2861,31 +2889,31 @@
         <v>34</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>34</v>
@@ -2893,10 +2921,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2907,7 +2935,7 @@
         <v>35</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>34</v>
@@ -2919,13 +2947,13 @@
         <v>34</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2976,16 +3004,16 @@
         <v>34</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>34</v>
@@ -3000,7 +3028,7 @@
         <v>34</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>34</v>
@@ -3008,14 +3036,14 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3034,16 +3062,16 @@
         <v>34</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3081,19 +3109,19 @@
         <v>34</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>35</v>
@@ -3105,7 +3133,7 @@
         <v>34</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>34</v>
@@ -3117,7 +3145,7 @@
         <v>34</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>34</v>
@@ -3125,10 +3153,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3136,10 +3164,10 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>34</v>
@@ -3148,22 +3176,22 @@
         <v>34</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>34</v>
@@ -3212,7 +3240,7 @@
         <v>34</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>35</v>
@@ -3224,7 +3252,7 @@
         <v>34</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>34</v>
@@ -3233,10 +3261,10 @@
         <v>34</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>34</v>
@@ -3244,10 +3272,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3258,7 +3286,7 @@
         <v>35</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>34</v>
@@ -3270,13 +3298,13 @@
         <v>34</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3327,16 +3355,16 @@
         <v>34</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>34</v>
@@ -3351,7 +3379,7 @@
         <v>34</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>34</v>
@@ -3359,14 +3387,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3385,16 +3413,16 @@
         <v>34</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3432,19 +3460,19 @@
         <v>34</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>35</v>
@@ -3456,7 +3484,7 @@
         <v>34</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>34</v>
@@ -3468,7 +3496,7 @@
         <v>34</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>34</v>
@@ -3476,10 +3504,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3490,7 +3518,7 @@
         <v>35</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>34</v>
@@ -3499,22 +3527,22 @@
         <v>34</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>34</v>
@@ -3563,19 +3591,19 @@
         <v>34</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>34</v>
@@ -3584,10 +3612,10 @@
         <v>34</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>34</v>
@@ -3595,10 +3623,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3609,7 +3637,7 @@
         <v>35</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>34</v>
@@ -3618,19 +3646,19 @@
         <v>34</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3680,19 +3708,19 @@
         <v>34</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>34</v>
@@ -3701,10 +3729,10 @@
         <v>34</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>34</v>
@@ -3712,10 +3740,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3726,7 +3754,7 @@
         <v>35</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>34</v>
@@ -3735,20 +3763,20 @@
         <v>34</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>34</v>
@@ -3797,19 +3825,19 @@
         <v>34</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>34</v>
@@ -3818,10 +3846,10 @@
         <v>34</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>34</v>
@@ -3829,10 +3857,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3843,7 +3871,7 @@
         <v>35</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>34</v>
@@ -3852,20 +3880,20 @@
         <v>34</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>34</v>
@@ -3914,19 +3942,19 @@
         <v>34</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>34</v>
@@ -3935,10 +3963,10 @@
         <v>34</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>34</v>
@@ -3946,10 +3974,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3960,7 +3988,7 @@
         <v>35</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>34</v>
@@ -3969,22 +3997,22 @@
         <v>34</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>34</v>
@@ -4033,19 +4061,19 @@
         <v>34</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>34</v>
@@ -4054,10 +4082,10 @@
         <v>34</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>34</v>
@@ -4065,10 +4093,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4079,7 +4107,7 @@
         <v>35</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>34</v>
@@ -4088,22 +4116,22 @@
         <v>34</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>34</v>
@@ -4152,19 +4180,19 @@
         <v>34</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>34</v>
@@ -4173,10 +4201,10 @@
         <v>34</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>34</v>
@@ -4184,10 +4212,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4198,28 +4226,28 @@
         <v>35</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>34</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4245,13 +4273,13 @@
         <v>34</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>34</v>
@@ -4269,42 +4297,42 @@
         <v>34</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4327,16 +4355,16 @@
         <v>34</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4362,13 +4390,13 @@
         <v>34</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>34</v>
@@ -4386,7 +4414,7 @@
         <v>34</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>35</v>
@@ -4395,22 +4423,22 @@
         <v>36</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>34</v>
@@ -4418,10 +4446,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4432,7 +4460,7 @@
         <v>35</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>34</v>
@@ -4444,16 +4472,16 @@
         <v>34</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4479,13 +4507,13 @@
         <v>34</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>34</v>
@@ -4503,75 +4531,75 @@
         <v>34</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>34</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>34</v>
@@ -4596,13 +4624,13 @@
         <v>34</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>34</v>
@@ -4620,42 +4648,42 @@
         <v>34</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4666,7 +4694,7 @@
         <v>35</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>34</v>
@@ -4678,13 +4706,13 @@
         <v>34</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4735,16 +4763,16 @@
         <v>34</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>34</v>
@@ -4759,7 +4787,7 @@
         <v>34</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>34</v>
@@ -4767,14 +4795,14 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -4793,16 +4821,16 @@
         <v>34</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4840,19 +4868,19 @@
         <v>34</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AD28" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>35</v>
@@ -4864,7 +4892,7 @@
         <v>34</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>34</v>
@@ -4876,7 +4904,7 @@
         <v>34</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>34</v>
@@ -4884,10 +4912,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4895,10 +4923,10 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>34</v>
@@ -4907,22 +4935,22 @@
         <v>34</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>34</v>
@@ -4971,7 +4999,7 @@
         <v>34</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>35</v>
@@ -4983,7 +5011,7 @@
         <v>34</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>34</v>
@@ -4992,10 +5020,10 @@
         <v>34</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>34</v>
@@ -5003,10 +5031,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5017,7 +5045,7 @@
         <v>35</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>34</v>
@@ -5029,13 +5057,13 @@
         <v>34</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5086,16 +5114,16 @@
         <v>34</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>34</v>
@@ -5110,7 +5138,7 @@
         <v>34</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>34</v>
@@ -5118,14 +5146,14 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5144,16 +5172,16 @@
         <v>34</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5191,19 +5219,19 @@
         <v>34</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AD31" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>35</v>
@@ -5215,7 +5243,7 @@
         <v>34</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>34</v>
@@ -5227,7 +5255,7 @@
         <v>34</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>34</v>
@@ -5235,10 +5263,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5246,34 +5274,34 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>34</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>34</v>
@@ -5322,19 +5350,19 @@
         <v>34</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>34</v>
@@ -5343,10 +5371,10 @@
         <v>34</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>34</v>
@@ -5354,10 +5382,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5368,7 +5396,7 @@
         <v>35</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>34</v>
@@ -5377,19 +5405,19 @@
         <v>34</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5439,19 +5467,19 @@
         <v>34</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>34</v>
@@ -5460,10 +5488,10 @@
         <v>34</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>34</v>
@@ -5471,10 +5499,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5482,32 +5510,32 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>34</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>34</v>
@@ -5556,19 +5584,19 @@
         <v>34</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>34</v>
@@ -5577,10 +5605,10 @@
         <v>34</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>34</v>
@@ -5588,10 +5616,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5602,7 +5630,7 @@
         <v>35</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>34</v>
@@ -5611,20 +5639,20 @@
         <v>34</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>34</v>
@@ -5673,19 +5701,19 @@
         <v>34</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>34</v>
@@ -5694,10 +5722,10 @@
         <v>34</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>34</v>
@@ -5705,10 +5733,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5719,7 +5747,7 @@
         <v>35</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>34</v>
@@ -5728,22 +5756,22 @@
         <v>34</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>34</v>
@@ -5792,19 +5820,19 @@
         <v>34</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>34</v>
@@ -5813,10 +5841,10 @@
         <v>34</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>34</v>
@@ -5824,10 +5852,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5838,7 +5866,7 @@
         <v>35</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>34</v>
@@ -5847,22 +5875,22 @@
         <v>34</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>34</v>
@@ -5911,19 +5939,19 @@
         <v>34</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>34</v>
@@ -5932,10 +5960,10 @@
         <v>34</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>34</v>
@@ -5943,10 +5971,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5966,19 +5994,19 @@
         <v>34</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6004,13 +6032,13 @@
         <v>34</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>34</v>
@@ -6028,7 +6056,7 @@
         <v>34</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>35</v>
@@ -6040,63 +6068,63 @@
         <v>34</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>34</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>34</v>
@@ -6145,31 +6173,31 @@
         <v>34</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>34</v>
@@ -6177,10 +6205,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6191,7 +6219,7 @@
         <v>35</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>34</v>
@@ -6203,13 +6231,13 @@
         <v>34</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6260,16 +6288,16 @@
         <v>34</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>34</v>
@@ -6284,7 +6312,7 @@
         <v>34</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>34</v>
@@ -6292,14 +6320,14 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6318,16 +6346,16 @@
         <v>34</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6365,19 +6393,19 @@
         <v>34</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AD41" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>35</v>
@@ -6389,7 +6417,7 @@
         <v>34</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>34</v>
@@ -6401,7 +6429,7 @@
         <v>34</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>34</v>
@@ -6409,10 +6437,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6423,7 +6451,7 @@
         <v>35</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>34</v>
@@ -6432,19 +6460,19 @@
         <v>34</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6494,19 +6522,19 @@
         <v>34</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>34</v>
@@ -6518,7 +6546,7 @@
         <v>34</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>34</v>
@@ -6526,10 +6554,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6540,7 +6568,7 @@
         <v>35</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>34</v>
@@ -6549,19 +6577,19 @@
         <v>34</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6587,13 +6615,13 @@
         <v>34</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>34</v>
@@ -6611,19 +6639,19 @@
         <v>34</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>34</v>
@@ -6635,7 +6663,7 @@
         <v>34</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>34</v>
@@ -6643,10 +6671,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6657,7 +6685,7 @@
         <v>35</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>34</v>
@@ -6666,19 +6694,19 @@
         <v>34</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6728,19 +6756,19 @@
         <v>34</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>34</v>
@@ -6752,7 +6780,7 @@
         <v>34</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>34</v>
@@ -6760,10 +6788,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6774,7 +6802,7 @@
         <v>35</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>34</v>
@@ -6783,19 +6811,19 @@
         <v>34</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6845,19 +6873,19 @@
         <v>34</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>34</v>
@@ -6869,7 +6897,7 @@
         <v>34</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>34</v>
@@ -6877,10 +6905,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6891,28 +6919,28 @@
         <v>35</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>34</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -6962,31 +6990,31 @@
         <v>34</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>34</v>
@@ -6994,10 +7022,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7008,7 +7036,7 @@
         <v>35</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>34</v>
@@ -7017,20 +7045,18 @@
         <v>34</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>306</v>
+        <v>48</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>307</v>
+        <v>126</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>309</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>34</v>
@@ -7079,31 +7105,31 @@
         <v>34</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>305</v>
+        <v>128</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>34</v>
+        <v>129</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>310</v>
+        <v>34</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>311</v>
+        <v>34</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>312</v>
+        <v>130</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>34</v>
@@ -7111,21 +7137,21 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>34</v>
@@ -7137,16 +7163,16 @@
         <v>34</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>306</v>
+        <v>94</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>314</v>
+        <v>95</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>315</v>
+        <v>132</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>316</v>
+        <v>97</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7184,34 +7210,34 @@
         <v>34</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>34</v>
+        <v>133</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="AD48" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>34</v>
+        <v>135</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>313</v>
+        <v>136</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>317</v>
+        <v>34</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>318</v>
+        <v>34</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>34</v>
@@ -7220,7 +7246,7 @@
         <v>34</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>319</v>
+        <v>130</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>34</v>
@@ -7228,10 +7254,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7242,7 +7268,7 @@
         <v>35</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>34</v>
@@ -7251,19 +7277,19 @@
         <v>34</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>321</v>
+        <v>157</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>324</v>
+        <v>275</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7313,31 +7339,31 @@
         <v>34</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>320</v>
+        <v>276</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>34</v>
+        <v>277</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>325</v>
+        <v>34</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>326</v>
+        <v>34</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>327</v>
+        <v>91</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>34</v>
@@ -7345,10 +7371,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>328</v>
+        <v>311</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>328</v>
+        <v>311</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7359,7 +7385,7 @@
         <v>35</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>34</v>
@@ -7368,18 +7394,20 @@
         <v>34</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>329</v>
+        <v>60</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>330</v>
+        <v>279</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>281</v>
+      </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>34</v>
@@ -7404,13 +7432,13 @@
         <v>34</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>34</v>
+        <v>282</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>34</v>
+        <v>283</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>34</v>
+        <v>284</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>34</v>
@@ -7428,19 +7456,19 @@
         <v>34</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>328</v>
+        <v>285</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>34</v>
@@ -7452,7 +7480,7 @@
         <v>34</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>332</v>
+        <v>91</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>34</v>
@@ -7460,10 +7488,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7474,7 +7502,7 @@
         <v>35</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>34</v>
@@ -7483,18 +7511,20 @@
         <v>34</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>156</v>
+        <v>106</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>125</v>
+        <v>287</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>34</v>
@@ -7543,19 +7573,19 @@
         <v>34</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>127</v>
+        <v>290</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>128</v>
+        <v>291</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>34</v>
@@ -7567,7 +7597,7 @@
         <v>34</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>129</v>
+        <v>292</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>34</v>
@@ -7575,21 +7605,21 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>34</v>
@@ -7598,19 +7628,19 @@
         <v>34</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>94</v>
+        <v>294</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>131</v>
+        <v>295</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>96</v>
+        <v>296</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7660,19 +7690,19 @@
         <v>34</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>135</v>
+        <v>297</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>34</v>
+        <v>291</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>34</v>
@@ -7684,7 +7714,7 @@
         <v>34</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>34</v>
@@ -7692,46 +7722,44 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>336</v>
+        <v>34</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>34</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>93</v>
+        <v>315</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>337</v>
+        <v>316</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>338</v>
+        <v>317</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>34</v>
       </c>
@@ -7779,31 +7807,31 @@
         <v>34</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>339</v>
+        <v>314</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>34</v>
+        <v>319</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>34</v>
+        <v>320</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>90</v>
+        <v>321</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>34</v>
@@ -7811,10 +7839,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7825,7 +7853,7 @@
         <v>35</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>34</v>
@@ -7834,18 +7862,20 @@
         <v>34</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>113</v>
+        <v>315</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>324</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>325</v>
+      </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>34</v>
@@ -7870,11 +7900,13 @@
         <v>34</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="Y54" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>34</v>
+      </c>
       <c r="Z54" t="s" s="2">
-        <v>343</v>
+        <v>34</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>34</v>
@@ -7892,22 +7924,22 @@
         <v>34</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>34</v>
+        <v>326</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>34</v>
+        <v>327</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>34</v>
@@ -7916,7 +7948,7 @@
         <v>34</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>34</v>
@@ -7924,10 +7956,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7935,10 +7967,10 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>34</v>
@@ -7947,18 +7979,20 @@
         <v>34</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>332</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>333</v>
+      </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>34</v>
@@ -8007,31 +8041,31 @@
         <v>34</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>34</v>
+        <v>335</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>34</v>
@@ -8039,10 +8073,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8062,16 +8096,16 @@
         <v>34</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8122,7 +8156,7 @@
         <v>34</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>35</v>
@@ -8134,7 +8168,7 @@
         <v>34</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>354</v>
+        <v>58</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>34</v>
@@ -8146,7 +8180,7 @@
         <v>34</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>34</v>
@@ -8154,10 +8188,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8168,7 +8202,7 @@
         <v>35</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>34</v>
@@ -8180,13 +8214,13 @@
         <v>34</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8237,16 +8271,16 @@
         <v>34</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>34</v>
@@ -8261,7 +8295,7 @@
         <v>34</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>34</v>
@@ -8269,14 +8303,14 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -8295,16 +8329,16 @@
         <v>34</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8354,7 +8388,7 @@
         <v>34</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>35</v>
@@ -8366,7 +8400,7 @@
         <v>34</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>34</v>
@@ -8378,7 +8412,7 @@
         <v>34</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>34</v>
@@ -8386,14 +8420,14 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8406,25 +8440,25 @@
         <v>34</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>34</v>
@@ -8473,7 +8507,7 @@
         <v>34</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>35</v>
@@ -8485,7 +8519,7 @@
         <v>34</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>34</v>
@@ -8497,7 +8531,7 @@
         <v>34</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>34</v>
@@ -8505,10 +8539,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8519,7 +8553,7 @@
         <v>35</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>34</v>
@@ -8528,16 +8562,16 @@
         <v>34</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8564,13 +8598,11 @@
         <v>34</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>361</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="Y60" s="2"/>
       <c r="Z60" t="s" s="2">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>34</v>
@@ -8588,31 +8620,31 @@
         <v>34</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>363</v>
+        <v>34</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>364</v>
+        <v>34</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>122</v>
+        <v>34</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>236</v>
+        <v>353</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>34</v>
@@ -8620,10 +8652,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8631,10 +8663,10 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>34</v>
@@ -8643,16 +8675,16 @@
         <v>34</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8703,22 +8735,22 @@
         <v>34</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>363</v>
+        <v>34</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>34</v>
+        <v>358</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>34</v>
@@ -8727,7 +8759,7 @@
         <v>34</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>34</v>
@@ -8735,10 +8767,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8749,7 +8781,7 @@
         <v>35</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>34</v>
@@ -8761,13 +8793,13 @@
         <v>34</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>113</v>
+        <v>338</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8794,13 +8826,13 @@
         <v>34</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>230</v>
+        <v>34</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>373</v>
+        <v>34</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>374</v>
+        <v>34</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>34</v>
@@ -8818,19 +8850,19 @@
         <v>34</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>57</v>
+        <v>363</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>34</v>
@@ -8842,7 +8874,7 @@
         <v>34</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>34</v>
@@ -8850,10 +8882,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8864,7 +8896,7 @@
         <v>35</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>34</v>
@@ -8873,20 +8905,18 @@
         <v>34</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>377</v>
+        <v>157</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>378</v>
+        <v>126</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>380</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>34</v>
@@ -8911,11 +8941,13 @@
         <v>34</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="Y63" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>34</v>
+      </c>
       <c r="Z63" t="s" s="2">
-        <v>381</v>
+        <v>34</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>34</v>
@@ -8933,19 +8965,19 @@
         <v>34</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>376</v>
+        <v>128</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>34</v>
+        <v>129</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>34</v>
@@ -8957,7 +8989,7 @@
         <v>34</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>382</v>
+        <v>130</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>34</v>
@@ -8965,14 +8997,14 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -8991,15 +9023,17 @@
         <v>34</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>384</v>
+        <v>94</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>385</v>
+        <v>95</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>97</v>
+      </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>34</v>
@@ -9048,7 +9082,7 @@
         <v>34</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>383</v>
+        <v>136</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>35</v>
@@ -9060,7 +9094,7 @@
         <v>34</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>34</v>
@@ -9069,17 +9103,711 @@
         <v>34</v>
       </c>
       <c r="AM64" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AO64" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="P65" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Q65" s="2"/>
+      <c r="R65" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AO65" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
+      <c r="P66" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Q66" s="2"/>
+      <c r="R66" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AO66" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+      <c r="P67" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Q67" s="2"/>
+      <c r="R67" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AO67" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Q68" s="2"/>
+      <c r="R68" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AO68" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="AN64" t="s" s="2">
+      <c r="M69" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="AO64" t="s" s="2">
+      <c r="N69" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="O69" s="2"/>
+      <c r="P69" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Q69" s="2"/>
+      <c r="R69" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="Y69" s="2"/>
+      <c r="Z69" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AO69" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+      <c r="P70" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Q70" s="2"/>
+      <c r="R70" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AO70" t="s" s="2">
         <v>34</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO64">
+  <autoFilter ref="A1:AO70">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9089,7 +9817,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI63">
+  <conditionalFormatting sqref="A2:AI69">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
